--- a/data/rNaught.xlsx
+++ b/data/rNaught.xlsx
@@ -1,27 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve\source\repos\steveteoh.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{84630888-D5A4-45BE-99FB-7D3C0833CE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E375BC8-F88E-46FC-951A-9F7CB6750495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="9672" yWindow="24" windowWidth="13368" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rNaught" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="75">
   <si>
     <t>location</t>
   </si>
@@ -244,11 +254,14 @@
   <si>
     <t>c16</t>
   </si>
+  <si>
+    <t>deathKV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -732,11 +745,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6750,14 +6764,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AI90"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="F80" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" ySplit="14" topLeftCell="Z73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="E85" sqref="E85"/>
+      <selection pane="bottomRight" activeCell="AE88" sqref="AE88:AF89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15954,6 +15968,428 @@
       <c r="AG86" s="3"/>
       <c r="AH86" s="3"/>
       <c r="AI86" s="3"/>
+    </row>
+    <row r="87" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>2022</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="G87" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H87" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="I87" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="J87" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="K87" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="L87" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="M87" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="N87" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="O87" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="P87" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="R87" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="AE87" s="2">
+        <f>AVERAGE(AD87,AG87)</f>
+        <v>0.69</v>
+      </c>
+      <c r="AF87" s="2">
+        <f>AVERAGE(AD87,AG87)</f>
+        <v>0.69</v>
+      </c>
+      <c r="AG87" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="AH87" s="3">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>36</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>2022</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88" s="3">
+        <v>1.07</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1.06</v>
+      </c>
+      <c r="G88" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="H88" s="4">
+        <v>1.03</v>
+      </c>
+      <c r="I88" s="4">
+        <v>1.03</v>
+      </c>
+      <c r="J88" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="K88" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="L88" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="M88" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="N88" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="O88" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="P88" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="Q88" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="R88" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="AE88" s="2">
+        <f t="shared" ref="AE88:AE89" si="6">AVERAGE(AD88,AG88)</f>
+        <v>0.78499999999999992</v>
+      </c>
+      <c r="AF88" s="2">
+        <f t="shared" ref="AF88:AF89" si="7">AVERAGE(AD88,AG88)</f>
+        <v>0.78499999999999992</v>
+      </c>
+      <c r="AG88" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="AH88" s="3">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89">
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>2022</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="G89" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="H89" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="I89" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="J89" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="K89" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="L89" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="M89" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="N89" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="O89" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="P89" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="Q89" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="R89" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="AE89" s="2">
+        <f t="shared" si="6"/>
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="AF89" s="2">
+        <f t="shared" si="7"/>
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="AG89" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="AH89" s="3">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>74</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>2022</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90" s="3">
+        <v>11</v>
+      </c>
+      <c r="F90" s="3">
+        <v>4</v>
+      </c>
+      <c r="G90" s="4">
+        <v>8</v>
+      </c>
+      <c r="H90" s="4">
+        <v>5</v>
+      </c>
+      <c r="I90" s="4">
+        <v>6</v>
+      </c>
+      <c r="J90" s="4">
+        <v>7</v>
+      </c>
+      <c r="K90" s="4">
+        <v>4</v>
+      </c>
+      <c r="L90" s="4">
+        <v>2</v>
+      </c>
+      <c r="M90" s="4">
+        <v>4</v>
+      </c>
+      <c r="N90" s="4">
+        <v>5</v>
+      </c>
+      <c r="O90" s="4">
+        <v>6</v>
+      </c>
+      <c r="P90" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q90" s="4">
+        <v>2</v>
+      </c>
+      <c r="R90" s="4">
+        <v>4</v>
+      </c>
+      <c r="S90" s="4">
+        <v>1</v>
+      </c>
+      <c r="T90" s="4">
+        <v>2</v>
+      </c>
+      <c r="U90" s="4">
+        <v>3</v>
+      </c>
+      <c r="V90" s="4">
+        <v>2</v>
+      </c>
+      <c r="W90" s="4">
+        <v>1</v>
+      </c>
+      <c r="X90" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y90" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z90" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA90" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB90" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC90" s="4">
+        <v>3</v>
+      </c>
+      <c r="AD90" s="4">
+        <v>3</v>
+      </c>
+      <c r="AE90" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF90" s="4">
+        <v>3</v>
+      </c>
+      <c r="AG90" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH90" s="4">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15962,10 +16398,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC65" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="BC65" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BY87" sqref="BY87"/>
     </sheetView>
   </sheetViews>
